--- a/design/LM_ArtAuto_v2.0.xlsx
+++ b/design/LM_ArtAuto_v2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" tabRatio="548" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>PARENT_UK</t>
   </si>
   <si>
-    <t>DECRIPTION</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>MONTH_YEAR</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
   </si>
 </sst>
 </file>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="14">
         <v>43522</v>
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>53</v>
@@ -1572,10 +1572,10 @@
         <v>27</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>103</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>2</v>
@@ -1658,8 +1658,8 @@
       <c r="C15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>99</v>
+      <c r="D15" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>97</v>
